--- a/com.sevenmartsupermarket/src/main/resources/ExcelFiles/LoginData.xlsx
+++ b/com.sevenmartsupermarket/src/main/resources/ExcelFiles/LoginData.xlsx
@@ -3,18 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JERIN\eclipse-workspace\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12105" windowHeight="1740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Valid" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Jerin</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Jessenia</t>
+  </si>
+  <si>
+    <t>elsa</t>
+  </si>
+  <si>
+    <t>jhgjh</t>
   </si>
 </sst>
 </file>
@@ -346,7 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -361,4 +373,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>